--- a/biology/Biochimie/Saccharase-isomaltase/Saccharase-isomaltase.xlsx
+++ b/biology/Biochimie/Saccharase-isomaltase/Saccharase-isomaltase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La saccharase-isomaltase est une glycoside hydrolase qui catalyse l'hydrolyse des liaisons (1→6)-α-D-osidiques de certains oligosaccharides produits par la digestion de l'amidon et du glycogène par l'α-amylase et dans l'isomaltose.
-Cette enzyme est présente au niveau de la bordure en brosse de l'intestin grêle[1],[2],[3]. Elle est exprimée préférentiellement dans la membrane apicale des entérocytes[4]. Elle a pour fonction de digérer les glucides de la ration alimentaire tels que l'amidon, le glycogène et l'isomaltose, ce qui permet leur dégradation en vue de produire de l'énergie métabolique
+Cette enzyme est présente au niveau de la bordure en brosse de l'intestin grêle. Elle est exprimée préférentiellement dans la membrane apicale des entérocytes. Elle a pour fonction de digérer les glucides de la ration alimentaire tels que l'amidon, le glycogène et l'isomaltose, ce qui permet leur dégradation en vue de produire de l'énergie métabolique
 </t>
         </is>
       </c>
